--- a/Docs/Five/pattern.xlsx
+++ b/Docs/Five/pattern.xlsx
@@ -1,86 +1,74 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Colin\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450"/>
+    <workbookView windowWidth="23130" windowHeight="11685"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Live3" sheetId="1" r:id="rId1"/>
+    <sheet name="Live4" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
+  <extLst/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5">
   <si>
     <t>落子处</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>空</t>
   </si>
   <si>
     <t>黑</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>空</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>墙</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>白</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="4">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color indexed="17"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
       <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -92,7 +80,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor indexed="42"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -105,11 +94,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -120,29 +124,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="7">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="好" xfId="1" builtinId="26"/>
+    <cellStyle name="好" xfId="1"/>
+    <cellStyle name="千位分隔" xfId="2" builtinId="3"/>
+    <cellStyle name="货币" xfId="3" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="百分比" xfId="5" builtinId="5"/>
+    <cellStyle name="货币[0]" xfId="6" builtinId="7"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -152,106 +151,106 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Guru" typeface="Raavi"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Khmr" typeface="MoolBoran"/>
         <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Beng" typeface="Vrinda"/>
         <a:font script="Cans" typeface="Euphemia"/>
         <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
         <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Ethi" typeface="Nyala"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Guru" typeface="Raavi"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Khmr" typeface="DaunPenh"/>
         <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Viet" typeface="Arial"/>
         <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -263,161 +262,227 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:satMod val="350000"/>
+                <a:shade val="99000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="_h" fmla="val 21600"/>
+            <a:gd name="_w" fmla="val 21600"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:pathLst>
+            <a:path w="21600" h="21600"/>
+          </a:pathLst>
+        </a:custGeom>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:srgbClr val="9CBEE0"/>
+            </a:gs>
+            <a:gs pos="0">
+              <a:srgbClr val="BBD5F0"/>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
+        <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="739CC3"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="200000"/>
+        </a:ln>
+      </a:spPr>
+      <a:bodyPr/>
+      <a:lstStyle/>
+    </a:spDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C1:O56"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="D1:N100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="M53" sqref="M53"/>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="N69" sqref="N69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="3" max="8" width="9" style="1"/>
     <col min="9" max="9" width="9" style="2"/>
     <col min="10" max="15" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="4:14" x14ac:dyDescent="0.15">
+    <row r="1" spans="4:14">
       <c r="D1" s="1">
         <v>-5</v>
       </c>
@@ -452,1134 +517,2023 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="4:14" x14ac:dyDescent="0.15">
+    <row r="2" spans="7:13">
       <c r="G2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="4:14" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="7:13">
       <c r="G3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="4:14" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="7:13">
       <c r="G4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="4:14" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="7:13">
       <c r="G5" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="4:14" x14ac:dyDescent="0.15">
+    <row r="6" spans="7:13">
       <c r="G6" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="4:14" x14ac:dyDescent="0.15">
+    <row r="8" spans="5:11">
       <c r="E8" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="4:14" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="5:11">
       <c r="E9" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="4:14" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="5:11">
       <c r="E10" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="4:14" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="5:11">
       <c r="E11" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="4:14" x14ac:dyDescent="0.15">
+    <row r="12" spans="5:11">
       <c r="E12" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="4:14" x14ac:dyDescent="0.15">
+    <row r="14" spans="6:12">
       <c r="F14" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="4:14" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="6:12">
       <c r="F15" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="4:14" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="6:12">
       <c r="F16" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="5:14" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="6:12">
       <c r="F17" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L17" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="5:14" x14ac:dyDescent="0.15">
+    <row r="18" spans="6:12">
       <c r="F18" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L18" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="5:14" x14ac:dyDescent="0.15">
+    <row r="21" spans="7:14">
       <c r="G21" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="5:14" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="7:14">
       <c r="G22" s="1" t="s">
         <v>3</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="5:14" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="7:14">
       <c r="G23" s="1" t="s">
         <v>4</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="5:14" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="7:14">
       <c r="G24" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N24" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="5:14" x14ac:dyDescent="0.15">
+    <row r="25" spans="7:14">
       <c r="G25" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N25" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="5:14" x14ac:dyDescent="0.15">
+    <row r="27" spans="5:12">
       <c r="E27" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="5:14" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="5:12">
       <c r="E28" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="5:14" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="5:12">
       <c r="E29" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="5:14" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="5:12">
       <c r="E30" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L30" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="5:14" x14ac:dyDescent="0.15">
+    <row r="31" spans="5:12">
       <c r="E31" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L31" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="4:14" x14ac:dyDescent="0.15">
+    <row r="33" spans="4:11">
       <c r="D33" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="4:14" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="4:11">
       <c r="D34" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="4:14" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="4:11">
       <c r="D35" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="4:14" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="4:11">
       <c r="D36" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K36" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="4:14" x14ac:dyDescent="0.15">
+    <row r="37" spans="4:11">
       <c r="D37" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K37" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="4:14" x14ac:dyDescent="0.15">
+    <row r="40" spans="7:14">
       <c r="G40" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="4:14" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="7:14">
       <c r="G41" s="1" t="s">
         <v>3</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="4:14" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="7:14">
       <c r="G42" s="1" t="s">
         <v>4</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="4:14" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="7:14">
       <c r="G43" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N43" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="4:14" x14ac:dyDescent="0.15">
+    <row r="44" spans="7:14">
       <c r="G44" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N44" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="4:14" x14ac:dyDescent="0.15">
+    <row r="46" spans="6:13">
       <c r="F46" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="4:14" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="6:13">
       <c r="F47" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="4:14" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="6:13">
       <c r="F48" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="4:13" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="6:13">
       <c r="F49" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M49" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="4:13" x14ac:dyDescent="0.15">
+    <row r="50" spans="6:13">
       <c r="F50" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M50" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="4:13" x14ac:dyDescent="0.15">
+    <row r="52" spans="4:11">
       <c r="D52" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" spans="4:13" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="4:11">
       <c r="D53" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" spans="4:13" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="4:11">
       <c r="D54" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="4:13" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="4:11">
       <c r="D55" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K55" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="4:13" x14ac:dyDescent="0.15">
+    <row r="56" spans="4:11">
       <c r="D56" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K56" s="1" t="s">
         <v>4</v>
       </c>
     </row>
+    <row r="59" spans="8:13">
+      <c r="H59" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I59" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K59" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L59" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M59" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="8:13">
+      <c r="H60" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I60" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K60" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L60" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M60" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="8:13">
+      <c r="H61" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K61" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L61" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M61" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="8:13">
+      <c r="H62" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I62" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K62" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L62" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M62" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="8:13">
+      <c r="H63" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I63" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K63" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L63" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M63" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="7:13">
+      <c r="G66" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I66" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K66" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L66" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M66" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="7:13">
+      <c r="G67" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I67" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K67" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L67" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M67" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="7:13">
+      <c r="G68" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I68" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K68" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L68" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M68" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="7:13">
+      <c r="G69" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I69" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J69" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K69" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L69" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M69" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="7:13">
+      <c r="G70" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I70" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K70" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L70" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M70" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="8:14">
+      <c r="H72" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I72" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J72" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K72" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L72" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M72" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N72" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="8:14">
+      <c r="H73" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I73" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J73" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K73" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L73" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M73" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N73" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="8:14">
+      <c r="H74" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I74" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J74" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K74" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L74" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M74" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N74" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="8:14">
+      <c r="H75" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I75" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J75" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K75" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L75" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M75" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N75" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="8:14">
+      <c r="H76" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I76" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J76" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K76" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L76" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M76" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N76" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="8:14">
+      <c r="H79" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I79" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J79" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K79" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L79" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M79" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N79" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="8:14">
+      <c r="H80" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I80" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J80" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K80" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L80" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M80" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N80" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="8:14">
+      <c r="H81" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I81" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J81" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K81" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L81" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M81" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N81" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="8:14">
+      <c r="H82" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I82" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J82" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K82" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L82" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M82" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N82" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="8:14">
+      <c r="H83" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I83" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J83" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K83" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L83" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M83" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N83" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="5:14">
+      <c r="E86" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I86" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J86" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K86" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L86" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M86" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N86" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="5:14">
+      <c r="E87" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I87" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J87" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K87" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L87" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M87" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N87" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="5:14">
+      <c r="E88" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I88" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J88" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K88" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L88" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M88" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N88" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="5:14">
+      <c r="E89" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I89" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J89" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K89" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L89" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M89" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N89" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="5:14">
+      <c r="E90" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I90" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J90" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K90" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L90" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M90" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N90" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" spans="5:14">
+      <c r="E91" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I91" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J91" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K91" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L91" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M91" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N91" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="5:14">
+      <c r="E92" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H92" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I92" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J92" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K92" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L92" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M92" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N92" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" spans="5:13">
+      <c r="E94" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H94" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I94" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J94" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K94" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L94" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M94" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="5:13">
+      <c r="E95" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H95" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I95" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J95" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K95" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L95" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M95" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="5:13">
+      <c r="E96" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I96" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J96" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K96" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L96" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M96" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="5:13">
+      <c r="E97" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I97" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J97" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K97" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L97" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M97" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="5:13">
+      <c r="E98" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I98" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J98" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K98" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L98" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M98" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" spans="5:13">
+      <c r="E99" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H99" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I99" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J99" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K99" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L99" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M99" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" spans="5:13">
+      <c r="E100" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I100" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J100" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K100" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L100" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M100" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>